--- a/mbs-perturbation/greedy/randomForest/greedy-randomForest-results.xlsx
+++ b/mbs-perturbation/greedy/randomForest/greedy-randomForest-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.05882352941176471</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1081081081081081</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9372294372294372</v>
+        <v>0.8836538461538461</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.987012987012987</v>
+        <v>0.6033653846153846</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6231884057971013</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.4405048076923077</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.02127659574468085</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="D6" t="n">
-        <v>0.04166666666666667</v>
+        <v>0.2857142857142858</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9924242424242424</v>
+        <v>0.3052884615384616</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6160200250312891</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5666666666666667</v>
+        <v>0.05</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3632882882882883</v>
+        <v>0.05714285714285715</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9079710144927535</v>
+        <v>0.5090625</v>
       </c>
     </row>
   </sheetData>
